--- a/data/trans_bre/P1419-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1419-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.774164917742942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.8713505103567211</v>
+        <v>0.8713505103567212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.961329053942634</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.928073164639784</v>
+        <v>2.810699744258678</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.724092114188871</v>
+        <v>1.992086669211952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.508469294695922</v>
+        <v>2.573887516442596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.5360960324554639</v>
+        <v>-0.5509219407667507</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4567762450814096</v>
+        <v>0.3988546270306521</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.25543176191161</v>
+        <v>0.3967131780837329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2577807083315933</v>
+        <v>0.5786025761052321</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4831448195574948</v>
+        <v>-0.4837508165171137</v>
       </c>
     </row>
     <row r="6">
@@ -692,26 +692,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.08312935181393</v>
+        <v>11.81549810202715</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.058512094290288</v>
+        <v>8.33048107825249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.110646263059868</v>
+        <v>9.307928435057489</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.312991805476914</v>
+        <v>2.157369935766905</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5.155508289651198</v>
+        <v>5.402168834464574</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>25.97322892518575</v>
+        <v>22.60020317831761</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7.355153653409911</v>
+        <v>7.782760356147591</v>
       </c>
     </row>
     <row r="7">
@@ -758,26 +758,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.317844003006984</v>
+        <v>3.580652491131162</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.196031424553667</v>
+        <v>2.019980223171834</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7387463457077927</v>
+        <v>0.7793771686868028</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.9459071526835</v>
+        <v>4.387716254078302</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5414477916964264</v>
+        <v>0.5791523042109974</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4566016080402355</v>
+        <v>0.568842289526002</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>1.077299533116014</v>
+        <v>0.9237232565271364</v>
       </c>
     </row>
     <row r="9">
@@ -788,26 +788,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.862051672170152</v>
+        <v>10.05303910691769</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.881029440464849</v>
+        <v>7.116730198249222</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.028567937441626</v>
+        <v>4.133462389777981</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.927308598791059</v>
+        <v>9.887485085996245</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.855470765709663</v>
+        <v>3.689422304995712</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>9.302248863951629</v>
+        <v>9.313550938974215</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="n">
-        <v>5.809927069411987</v>
+        <v>5.292895132599988</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +831,7 @@
         <v>10.24833343106092</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.393052777932578</v>
+        <v>4.393052777932579</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>5.076158605293707</v>
@@ -854,28 +854,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.482052958405614</v>
+        <v>2.683335955714456</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7583520905562248</v>
+        <v>0.8281671763300351</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.623523807122131</v>
+        <v>6.327149654012078</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.265882737600054</v>
+        <v>1.434940723670944</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.868921705726754</v>
+        <v>0.5642449087789748</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.01422231607822608</v>
+        <v>0.07656615034534847</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1.749264231380612</v>
+        <v>1.838249362335706</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2093472523950186</v>
+        <v>0.2203581520576889</v>
       </c>
     </row>
     <row r="12">
@@ -886,28 +886,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.057874364226461</v>
+        <v>8.107689391423197</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.592549675175534</v>
+        <v>5.981587549773147</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.46274166496229</v>
+        <v>14.41313629863308</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.101698275889845</v>
+        <v>6.92635635139912</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>20.97793813279764</v>
+        <v>24.14138866199927</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>12.27773878672573</v>
+        <v>15.2693630781753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>20.96335422651861</v>
+        <v>20.11181619375116</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.82671049751743</v>
+        <v>2.595011596477068</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         <v>5.996498986508422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.314851830932823</v>
+        <v>4.314851830932827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>6.074003854412235</v>
@@ -943,7 +943,7 @@
         <v>3.530681304949967</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.897673749525756</v>
+        <v>1.897673749525757</v>
       </c>
     </row>
     <row r="14">
@@ -954,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.125377651705094</v>
+        <v>7.044030980098236</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.532188309606</v>
+        <v>7.596929118101288</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.957576461401262</v>
+        <v>3.013519403327729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.576781791373406</v>
+        <v>1.733230599455045</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.907255741720069</v>
+        <v>1.910341659232144</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.063030731509073</v>
+        <v>1.939262131105439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6978851028011726</v>
+        <v>0.7603254660412739</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1960253366957188</v>
+        <v>0.4018570000587526</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.19544124921413</v>
+        <v>13.83118094453266</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.79328756711122</v>
+        <v>15.15799989653331</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.308811293120787</v>
+        <v>9.550063539838829</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.762196128409137</v>
+        <v>6.766269230858783</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>19.45194496249266</v>
+        <v>17.54468240335459</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43.03259498056138</v>
+        <v>44.94787025875623</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9.838378105765718</v>
+        <v>10.85035815243217</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.499072771655632</v>
+        <v>7.013503157815677</v>
       </c>
     </row>
     <row r="16">
@@ -1054,28 +1054,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.750565205459056</v>
+        <v>2.320893492763647</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.571715012640633</v>
+        <v>9.350022940510968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.573955692354275</v>
+        <v>-1.584119808086655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.874691679887844</v>
+        <v>8.927055473264055</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.01501712697557566</v>
+        <v>0.3019763351441184</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.831764620939019</v>
+        <v>1.849192954885933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.6170330048730919</v>
+        <v>-0.6661361665152695</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.039190101912646</v>
+        <v>0.9686224466276782</v>
       </c>
     </row>
     <row r="18">
@@ -1086,28 +1086,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.852277722519547</v>
+        <v>10.57891900642058</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.12977132700906</v>
+        <v>20.27068792539485</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.419953542197594</v>
+        <v>4.301707229431399</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.18517920797344</v>
+        <v>17.47947223138409</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15.76606225863982</v>
+        <v>26.34000669890131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19.4961454225423</v>
+        <v>18.2913714065732</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8.296804714595543</v>
+        <v>7.36321365910984</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.929344080610521</v>
+        <v>3.933200263837337</v>
       </c>
     </row>
     <row r="19">
@@ -1154,28 +1154,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.022050132163838</v>
+        <v>6.068074486851569</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.900547338951133</v>
+        <v>3.669064858800062</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.219464184183372</v>
+        <v>1.291380944258602</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.15404058749073</v>
+        <v>7.124811519823264</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.326794547846941</v>
+        <v>1.323603285384133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.342776165877443</v>
+        <v>1.10820758143054</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03643523198541587</v>
+        <v>0.3760240335269524</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.229421895380591</v>
+        <v>1.204174487271985</v>
       </c>
     </row>
     <row r="21">
@@ -1186,28 +1186,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.72192565569393</v>
+        <v>15.01369791215255</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>10.56786259226117</v>
+        <v>10.98328958794928</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.671154938605923</v>
+        <v>7.418681188109086</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.23577897278635</v>
+        <v>14.02622199465423</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>28.59160535084513</v>
+        <v>22.51789612544828</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>24.63416803750773</v>
+        <v>26.50723410477088</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>20.12547395070156</v>
+        <v>19.54729170581516</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>5.660305914026975</v>
+        <v>5.112230911811213</v>
       </c>
     </row>
     <row r="22">
@@ -1254,28 +1254,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.314755464152002</v>
+        <v>4.171779704531828</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.657766336329614</v>
+        <v>6.826411215706897</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.395658982417324</v>
+        <v>1.333587179500204</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.958827557449828</v>
+        <v>9.790527399182571</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.52004688659161</v>
+        <v>1.481342371382581</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3.109437084179786</v>
+        <v>3.269158563132526</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3291570035754269</v>
+        <v>0.3352338938754308</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.9874630676414353</v>
+        <v>0.9198447245555491</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1286,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.105833423803427</v>
+        <v>9.158458162033638</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.78160664675529</v>
+        <v>11.74722498762695</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.624859175110246</v>
+        <v>5.672287367786003</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.3422026305199</v>
+        <v>16.5861167955586</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>10.39450191530233</v>
+        <v>10.65832558329344</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>31.4481819217917</v>
+        <v>29.4705196149018</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>3.531884994822616</v>
+        <v>3.827395610954599</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.376911939580973</v>
+        <v>2.33600888637527</v>
       </c>
     </row>
     <row r="25">
@@ -1331,7 +1331,7 @@
         <v>4.984159276549097</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.067999316618507</v>
+        <v>3.067999316618508</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>1.555659453325457</v>
@@ -1354,28 +1354,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.927296815947061</v>
+        <v>6.172411835619729</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>4.531926552383299</v>
+        <v>4.435229251865755</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.016664246519338</v>
+        <v>3.074161217105707</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.632128135750901</v>
+        <v>1.683843616912653</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8236660406978448</v>
+        <v>0.837767474072617</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2.392147482186234</v>
+        <v>2.353468990729307</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1.006159788460532</v>
+        <v>0.9959617107862695</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6599492800724086</v>
+        <v>0.7233696999727638</v>
       </c>
     </row>
     <row r="27">
@@ -1386,28 +1386,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.30605420738779</v>
+        <v>12.34512829335245</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.710121254175313</v>
+        <v>8.580220240209554</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.404568404554465</v>
+        <v>7.314546388252688</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.575043247573314</v>
+        <v>4.606006604143878</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.702039349238878</v>
+        <v>2.566509978147752</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>16.40587310644069</v>
+        <v>14.49919229601731</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6.363706722103392</v>
+        <v>5.640068091371628</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4.866443204853231</v>
+        <v>5.642188878609678</v>
       </c>
     </row>
     <row r="28">
@@ -1454,28 +1454,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>6.564046803809926</v>
+        <v>6.558476996694306</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.256343986256422</v>
+        <v>6.287828590998358</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.636728199414768</v>
+        <v>3.656158277035821</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.002446280177197</v>
+        <v>6.053961326438075</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1.875235963584481</v>
+        <v>1.838985328247398</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>3.979397797976016</v>
+        <v>4.086422462020176</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.887443471997579</v>
+        <v>1.935489724788112</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>1.359234914473283</v>
+        <v>1.368734828333019</v>
       </c>
     </row>
     <row r="30">
@@ -1486,28 +1486,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.094755432116983</v>
+        <v>9.115717063216163</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.363214484514122</v>
+        <v>8.247080398265897</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.502135164468615</v>
+        <v>5.662327245875969</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>8.027512286753009</v>
+        <v>8.062676401334535</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3.490625525946128</v>
+        <v>3.502076004546864</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9.192487133788337</v>
+        <v>8.928805580510591</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>4.372793807676143</v>
+        <v>4.560353157206099</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2.392375701919847</v>
+        <v>2.362402828893258</v>
       </c>
     </row>
     <row r="31">
